--- a/data/trans_camb/P15_4-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P15_4-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,39</t>
+          <t>-7,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,6</t>
+          <t>10,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,47</t>
+          <t>20,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,45</t>
+          <t>-7,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,53</t>
+          <t>10,55</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,64</t>
+          <t>20,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,09</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,73</t>
+          <t>10,75</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,46</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>10,62</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>20,27</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>27,08</t>
+          <t>20,55</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,21; -3,43</t>
+          <t>-11,44; -4,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,36; 15,46</t>
+          <t>6,27; 15,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,46; 25,02</t>
+          <t>15,88; 26,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,7; 33,48</t>
+          <t>-10,26; -4,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,93; -4,72</t>
+          <t>6,8; 14,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,67; 14,61</t>
+          <t>16,02; 24,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,08; 23,69</t>
+          <t>-10,12; -5,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,05; 29,72</t>
+          <t>7,94; 14,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,99; -5,16</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>7,52; 13,47</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>17,11; 23,56</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>23,94; 30,38</t>
+          <t>17,33; 23,86</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-49,92%</t>
+          <t>-52,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>71,56%</t>
+          <t>74,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>138,23%</t>
+          <t>141,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>192,1%</t>
+          <t>-53,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-54,08%</t>
+          <t>75,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>76,42%</t>
+          <t>145,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>144,29%</t>
+          <t>-53,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>184,83%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-52,03%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>74,0%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>141,27%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>188,74%</t>
+          <t>143,26%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,05; -25,76</t>
+          <t>-67,4; -32,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,14; 122,17</t>
+          <t>36,09; 121,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,4; 196,22</t>
+          <t>93,47; 211,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>136,79; 265,0</t>
+          <t>-66,68; -35,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,52; -37,18</t>
+          <t>41,62; 113,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,13; 118,04</t>
+          <t>101,64; 196,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,06; 189,84</t>
+          <t>-63,92; -41,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>130,2; 238,96</t>
+          <t>50,8; 110,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-63,22; -38,94</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>48,34; 103,06</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>107,73; 179,64</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>152,2; 235,3</t>
+          <t>108,64; 183,42</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,86</t>
+          <t>16,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,38</t>
+          <t>25,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,27</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,94</t>
+          <t>13,91</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,1</t>
+          <t>23,55</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,58</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,18</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>14,99</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>24,48</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>29,26</t>
+          <t>24,7</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,29; -0,51</t>
+          <t>-7,2; -0,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,69; 20,31</t>
+          <t>12,22; 22,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,17; 30,59</t>
+          <t>20,59; 31,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,95; 37,36</t>
+          <t>-9,72; -4,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -4,22</t>
+          <t>9,61; 17,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,54; 18,4</t>
+          <t>19,26; 28,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,12; 28,13</t>
+          <t>-7,63; -3,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,96; 36,32</t>
+          <t>11,94; 18,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,62; -3,34</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>11,92; 18,29</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>21,17; 27,92</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>24,14; 34,82</t>
+          <t>21,3; 28,16</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-35,56%</t>
+          <t>-34,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>143,04%</t>
+          <t>148,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>228,86%</t>
+          <t>232,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>263,91%</t>
+          <t>-70,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-71,7%</t>
+          <t>143,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>145,66%</t>
+          <t>243,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>243,51%</t>
+          <t>-51,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>301,35%</t>
+          <t>146,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-52,51%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>144,43%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>235,88%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>281,93%</t>
+          <t>237,91%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,7; -6,5</t>
+          <t>-56,6; -5,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,55; 219,99</t>
+          <t>94,38; 236,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>153,38; 340,41</t>
+          <t>153,76; 336,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>170,92; 392,44</t>
+          <t>-83,68; -49,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,17; -48,97</t>
+          <t>85,18; 226,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,89; 231,97</t>
+          <t>167,27; 363,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>165,22; 361,12</t>
+          <t>-65,41; -34,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>204,05; 448,63</t>
+          <t>101,84; 198,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-64,95; -34,47</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>101,46; 197,86</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>180,58; 300,91</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>211,86; 368,91</t>
+          <t>179,93; 306,39</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,66</t>
+          <t>-7,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,87</t>
+          <t>16,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,93</t>
+          <t>22,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,72</t>
+          <t>21,54</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,12</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,29</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>16,29</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>22,53</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
+          <t>22,15</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,35; -0,87</t>
+          <t>-14,49; -0,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,75; 25,71</t>
+          <t>6,11; 24,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,58; 33,14</t>
+          <t>12,29; 32,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,19; 1,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 6,85</t>
+          <t>8,07; 25,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,71; 24,3</t>
+          <t>11,76; 29,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,28; 29,93</t>
+          <t>-10,67; -1,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,69; 22,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 0,86</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>10,46; 22,92</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>15,92; 29,72</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>15,16; 28,86</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-60,93%</t>
+          <t>-57,87%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>126,24%</t>
+          <t>128,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>182,36%</t>
+          <t>180,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-23,78%</t>
+          <t>140,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>142,68%</t>
+          <t>183,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>188,8%</t>
+          <t>-50,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>134,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-43,26%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>134,06%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>185,42%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>182,31%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-84,93; 4,59</t>
+          <t>-84,71; 0,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>36,57; 303,09</t>
+          <t>32,35; 283,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69,93; 384,81</t>
+          <t>73,8; 371,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,88; 21,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,19; 81,82</t>
+          <t>50,43; 297,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>55,69; 280,76</t>
+          <t>76,18; 342,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>80,84; 342,37</t>
+          <t>-73,6; -14,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,92; 233,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-69,84; 17,52</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>71,97; 239,84</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>105,3; 311,56</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>96,3; 298,29</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,04</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,36</t>
+          <t>13,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22,74</t>
+          <t>23,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,52</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,74</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,69</t>
+          <t>21,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,69</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>27,47</t>
+          <t>13,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,4</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>13,02</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>22,2</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>28,5</t>
+          <t>22,38</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,39; -3,66</t>
+          <t>-8,39; -3,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,13; 16,51</t>
+          <t>10,53; 17,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,26; 26,21</t>
+          <t>19,89; 26,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,69; 33,59</t>
+          <t>-8,87; -4,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,98; -4,79</t>
+          <t>9,91; 15,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,95; 15,51</t>
+          <t>19,0; 24,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,57; 24,4</t>
+          <t>-8,08; -5,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,85; 30,77</t>
+          <t>11,09; 15,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,95; -4,83</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>11,04; 15,09</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>19,95; 24,34</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>25,65; 30,83</t>
+          <t>20,07; 24,56</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-46,31%</t>
+          <t>-47,2%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>102,44%</t>
+          <t>105,8%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>174,42%</t>
+          <t>177,22%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>226,39%</t>
+          <t>-57,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-56,1%</t>
+          <t>104,42%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>105,6%</t>
+          <t>180,48%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>180,48%</t>
+          <t>-52,19%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>228,58%</t>
+          <t>105,12%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-51,12%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>103,99%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>177,39%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>227,72%</t>
+          <t>178,82%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,66 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,11; -30,92</t>
+          <t>-59,0; -31,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>68,68; 141,79</t>
+          <t>71,04; 147,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>130,27; 226,28</t>
+          <t>135,17; 232,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>177,39; 284,47</t>
+          <t>-67,08; -45,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-67,17; -42,51</t>
+          <t>73,51; 140,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>73,88; 141,81</t>
+          <t>142,8; 224,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>139,95; 224,17</t>
+          <t>-60,3; -43,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>180,68; 281,64</t>
+          <t>81,84; 131,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,31; -40,64</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>82,07; 129,32</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>149,36; 210,94</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>190,45; 264,97</t>
+          <t>146,69; 211,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
